--- a/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/Conceptmap BRTIpoAmostra-1.0-SNOMED GPS.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/Conceptmap BRTIpoAmostra-1.0-SNOMED GPS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Entregaveis/1.RepositorioSemantico/Exames/ConceptMapsExams/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DE35609-87A3-EB4F-BBDF-2D517E14BB8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6BB854-4851-F144-850D-5F07048CF46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2680" yWindow="1240" windowWidth="23260" windowHeight="12460" xr2:uid="{BAC6E531-6BA3-4BFB-BDC5-B283185E87E6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="175">
   <si>
     <t>ID (FONTE)</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>FRS</t>
-  </si>
-  <si>
-    <t>V2-0487</t>
   </si>
   <si>
     <t>Fluido Respiratório</t>
@@ -1012,7 +1009,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1027,16 +1024,16 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>171</v>
-      </c>
       <c r="C1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -1045,16 +1042,16 @@
     </row>
     <row r="2" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -1092,269 +1089,269 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
       <c r="E4" s="3">
         <v>258603007</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>258607008</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6">
         <v>168141000</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>119361006</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8">
         <v>119334006</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10">
         <v>258580003</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>119364003</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
-      </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="3">
         <v>432825001</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
-        <v>37</v>
-      </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" t="s">
         <v>42</v>
       </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
-      </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" t="s">
         <v>44</v>
       </c>
-      <c r="B17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
-        <v>45</v>
-      </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17">
         <v>119342007</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
-      </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>122575003</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1379,10 +1376,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1390,7 +1387,7 @@
         <v>708048008</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1398,7 +1395,7 @@
         <v>309075001</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1406,7 +1403,7 @@
         <v>309068002</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1414,7 +1411,7 @@
         <v>309067007</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1422,7 +1419,7 @@
         <v>309066003</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1430,7 +1427,7 @@
         <v>309051001</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1438,7 +1435,7 @@
         <v>309049000</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1446,7 +1443,7 @@
         <v>302795002</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1454,7 +1451,7 @@
         <v>302794003</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1462,7 +1459,7 @@
         <v>278020009</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1470,7 +1467,7 @@
         <v>258649003</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1478,7 +1475,7 @@
         <v>258609006</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1486,7 +1483,7 @@
         <v>258607008</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1494,7 +1491,7 @@
         <v>258603007</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1502,7 +1499,7 @@
         <v>258591005</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1510,7 +1507,7 @@
         <v>258580003</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1518,7 +1515,7 @@
         <v>258574006</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1526,7 +1523,7 @@
         <v>258531008</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1534,7 +1531,7 @@
         <v>258530009</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1542,7 +1539,7 @@
         <v>258528007</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1550,7 +1547,7 @@
         <v>258523003</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1558,7 +1555,7 @@
         <v>258520000</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1566,7 +1563,7 @@
         <v>258505006</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1574,7 +1571,7 @@
         <v>258503004</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1582,7 +1579,7 @@
         <v>258502009</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1590,7 +1587,7 @@
         <v>258500001</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1598,7 +1595,7 @@
         <v>258498002</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1606,7 +1603,7 @@
         <v>258482009</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1614,7 +1611,7 @@
         <v>258474009</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1622,7 +1619,7 @@
         <v>258463000</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1630,7 +1627,7 @@
         <v>258459007</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1638,7 +1635,7 @@
         <v>258455001</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1646,7 +1643,7 @@
         <v>258453008</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1654,7 +1651,7 @@
         <v>258450006</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1662,7 +1659,7 @@
         <v>258442002</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1670,7 +1667,7 @@
         <v>258441009</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1678,7 +1675,7 @@
         <v>258440005</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1686,7 +1683,7 @@
         <v>258438000</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1694,7 +1691,7 @@
         <v>258435002</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1702,7 +1699,7 @@
         <v>258415003</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1710,7 +1707,7 @@
         <v>257261003</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1718,7 +1715,7 @@
         <v>168141000</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1726,7 +1723,7 @@
         <v>168139001</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1734,7 +1731,7 @@
         <v>168138009</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1742,7 +1739,7 @@
         <v>168137004</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1750,7 +1747,7 @@
         <v>122880004</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1758,7 +1755,7 @@
         <v>122877000</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1766,7 +1763,7 @@
         <v>122609004</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1774,7 +1771,7 @@
         <v>122593002</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1782,7 +1779,7 @@
         <v>122580007</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1790,7 +1787,7 @@
         <v>122575003</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1798,7 +1795,7 @@
         <v>122572000</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1806,7 +1803,7 @@
         <v>122568004</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1814,7 +1811,7 @@
         <v>122566000</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1822,7 +1819,7 @@
         <v>122565001</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1830,7 +1827,7 @@
         <v>122560006</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1838,7 +1835,7 @@
         <v>122556008</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1846,7 +1843,7 @@
         <v>122555007</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1854,7 +1851,7 @@
         <v>122554006</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1862,7 +1859,7 @@
         <v>122552005</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1870,7 +1867,7 @@
         <v>119401005</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1878,7 +1875,7 @@
         <v>119395005</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1886,7 +1883,7 @@
         <v>119394009</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1894,7 +1891,7 @@
         <v>119376003</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1902,7 +1899,7 @@
         <v>119371008</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1910,7 +1907,7 @@
         <v>119370009</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1918,7 +1915,7 @@
         <v>119367005</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1926,7 +1923,7 @@
         <v>119366001</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1934,7 +1931,7 @@
         <v>119365002</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1942,7 +1939,7 @@
         <v>119364003</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1950,7 +1947,7 @@
         <v>119363009</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1958,7 +1955,7 @@
         <v>119362004</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1966,7 +1963,7 @@
         <v>119361006</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1974,7 +1971,7 @@
         <v>119360007</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1982,7 +1979,7 @@
         <v>119351004</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1990,7 +1987,7 @@
         <v>119350003</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -1998,7 +1995,7 @@
         <v>119349003</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2006,7 +2003,7 @@
         <v>119345009</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2014,7 +2011,7 @@
         <v>119344008</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2022,7 +2019,7 @@
         <v>119342007</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2030,7 +2027,7 @@
         <v>119341000</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2038,7 +2035,7 @@
         <v>119339001</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2046,7 +2043,7 @@
         <v>119337004</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2054,7 +2051,7 @@
         <v>119336008</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2062,7 +2059,7 @@
         <v>119335007</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2070,7 +2067,7 @@
         <v>119334006</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2078,7 +2075,7 @@
         <v>119332005</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2086,7 +2083,7 @@
         <v>119329007</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2094,7 +2091,7 @@
         <v>119327009</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2102,7 +2099,7 @@
         <v>119325001</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2110,7 +2107,7 @@
         <v>119323008</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2118,7 +2115,7 @@
         <v>119320006</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2126,7 +2123,7 @@
         <v>119318008</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2134,7 +2131,7 @@
         <v>119312009</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2142,7 +2139,7 @@
         <v>119311002</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2150,7 +2147,7 @@
         <v>119305000</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2158,7 +2155,7 @@
         <v>119304001</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2166,7 +2163,7 @@
         <v>119300005</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2174,7 +2171,7 @@
         <v>119297000</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2182,7 +2179,7 @@
         <v>119295008</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2190,7 +2187,7 @@
         <v>119294007</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2198,7 +2195,7 @@
         <v>702701006</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2206,7 +2203,7 @@
         <v>698276005</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2214,7 +2211,7 @@
         <v>472896000</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2222,7 +2219,7 @@
         <v>472881004</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2230,7 +2227,7 @@
         <v>472867001</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2238,7 +2235,7 @@
         <v>446861007</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2246,7 +2243,7 @@
         <v>446846006</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2254,7 +2251,7 @@
         <v>446562005</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2262,7 +2259,7 @@
         <v>446302006</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2270,7 +2267,7 @@
         <v>446272009</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2278,7 +2275,7 @@
         <v>440500007</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2286,7 +2283,7 @@
         <v>440493002</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2294,7 +2291,7 @@
         <v>440473005</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2302,7 +2299,7 @@
         <v>440137008</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2310,7 +2307,7 @@
         <v>439961009</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2318,7 +2315,7 @@
         <v>438660002</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2326,7 +2323,7 @@
         <v>432825001</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2334,7 +2331,7 @@
         <v>430268003</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2342,7 +2339,7 @@
         <v>408654003</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2350,7 +2347,7 @@
         <v>399713008</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2358,7 +2355,7 @@
         <v>309502007</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2366,7 +2363,7 @@
         <v>309213006</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2374,7 +2371,7 @@
         <v>309211008</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2382,7 +2379,7 @@
         <v>309210009</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2390,7 +2387,7 @@
         <v>309176002</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.2">
@@ -2398,7 +2395,7 @@
         <v>309166000</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
